--- a/tk_vagas_estacionamento/Dados.xlsx
+++ b/tk_vagas_estacionamento/Dados.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1095,6 +1095,156 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
+        <is>
+          <t>Reservado</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>457.987.659-55</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paulo Souza</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Reservado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>785.847.375-48</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Maria Ferreira</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17:53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Reservado</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>578.987.478-90</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Silvana Rocha</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Reservado</t>
         </is>

--- a/tk_vagas_estacionamento/Dados.xlsx
+++ b/tk_vagas_estacionamento/Dados.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,156 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
+        <is>
+          <t>Reservado</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>457.987.659-55</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Paulo Souza</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Reservado</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>578.987.478-90</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Silvana Rocha</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Reservado</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>785.847.375-48</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Maria Ferreira</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>06:27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>Reservado</t>
         </is>

--- a/tk_vagas_estacionamento/Dados.xlsx
+++ b/tk_vagas_estacionamento/Dados.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1395,6 +1395,56 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
+        <is>
+          <t>Reservado</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>488.689.768-78</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Flaviane Silva</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13/08/2025</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>08:23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>Reservado</t>
         </is>

--- a/tk_vagas_estacionamento/Dados.xlsx
+++ b/tk_vagas_estacionamento/Dados.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,16 +619,8 @@
           <t>21:05</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18/11/2023</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>22:05</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>3</t>
@@ -639,26 +631,18 @@
           <t>B</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Livre</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>488.689.768-78</t>
+          <t>456.699.375-56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Flaviane Silva</t>
+          <t>Roger Siaty</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -683,7 +667,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -703,22 +687,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>456.699.375-56</t>
+          <t>857.877.465-46</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Roger Siaty</t>
+          <t>Dalvana Gomes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18/11/2023</t>
+          <t>19/11/2023</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21:19</t>
+          <t>12:59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -733,12 +717,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -753,12 +737,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>857.877.465-46</t>
+          <t>488.689.768-78</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dalvana Gomes</t>
+          <t>Flaviane Silva</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -768,7 +752,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12:59</t>
+          <t>13:01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -803,12 +787,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>488.689.768-78</t>
+          <t>785.847.375-48</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Flaviane Silva</t>
+          <t>Maria Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -818,7 +802,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13:01</t>
+          <t>13:03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -853,12 +837,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>785.847.375-48</t>
+          <t>456.699.375-56</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maria Ferreira</t>
+          <t>Roger Siaty</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -868,7 +852,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13:03</t>
+          <t>13:04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -918,7 +902,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13:04</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -933,12 +917,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -953,12 +937,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>456.699.375-56</t>
+          <t>857.877.465-46</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Roger Siaty</t>
+          <t>Dalvana Gomes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -968,7 +952,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -983,12 +967,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1003,12 +987,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>857.877.465-46</t>
+          <t>456.699.375-56</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dalvana Gomes</t>
+          <t>Roger Siaty</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1033,7 +1017,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1053,22 +1037,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>456.699.375-56</t>
+          <t>457.987.659-55</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Roger Siaty</t>
+          <t>Paulo Souza</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>19/11/2023</t>
+          <t>12/08/2025</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>13:06</t>
+          <t>17:52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1072,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1103,12 +1087,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>457.987.659-55</t>
+          <t>785.847.375-48</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Paulo Souza</t>
+          <t>Maria Ferreira</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1118,7 +1102,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17:52</t>
+          <t>17:53</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1138,7 +1122,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1153,12 +1137,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>785.847.375-48</t>
+          <t>578.987.478-90</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Maria Ferreira</t>
+          <t>Silvana Rocha</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1168,7 +1152,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>17:53</t>
+          <t>17:56</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1183,7 +1167,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1203,22 +1187,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>578.987.478-90</t>
+          <t>457.987.659-55</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Silvana Rocha</t>
+          <t>Paulo Souza</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>13/08/2025</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>17:56</t>
+          <t>06:27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1233,7 +1217,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1253,12 +1237,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>457.987.659-55</t>
+          <t>578.987.478-90</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Paulo Souza</t>
+          <t>Silvana Rocha</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1283,7 +1267,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1303,12 +1287,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>578.987.478-90</t>
+          <t>785.847.375-48</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Silvana Rocha</t>
+          <t>Maria Ferreira</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1333,7 +1317,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1353,12 +1337,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>785.847.375-48</t>
+          <t>488.689.768-78</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Maria Ferreira</t>
+          <t>Flaviane Silva</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1368,7 +1352,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>06:27</t>
+          <t>08:23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1383,7 +1367,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1395,56 +1379,6 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>Reservado</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>488.689.768-78</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Flaviane Silva</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>13/08/2025</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>08:23</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>Reservado</t>
         </is>
